--- a/frontend/public/FIDUS_Fund_Restructure_Analysis.xlsx
+++ b/frontend/public/FIDUS_Fund_Restructure_Analysis.xlsx
@@ -8,11 +8,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Structure" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proposed Structure" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Existing Investments" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New Client Projections" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison Analysis" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Client Investments" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fund Totals" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rate Comparison" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Structure Comparison" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grandfathering Details" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item</t>
+          <t>Metric</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Details</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
@@ -465,96 +465,168 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Prepared For</t>
+          <t>Total Investments</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FIDUS Investment Committee</t>
+          <t>4 investments</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total Principal Under Management</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>$380,536.05</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KEY CHANGES:</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Total Monthly Interest Obligation</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>$11,635.85</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1. CORE Fund</t>
+          <t>Total Annual Interest Obligation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No change - remains at 1.5% monthly</t>
+          <t>$139,630.24</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2. BALANCE Fund</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Reduced from 2.5% to 2.0% monthly for NEW investments</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3. DYNAMIC Fund</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DISCONTINUED - merged into UNLIMITED</t>
-        </is>
-      </c>
+          <t>--- RESTRUCTURE IMPACT ---</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4. UNLIMITED Fund</t>
+          <t>BALANCE Principal (existing)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Minimum reduced from $1M to $250K, now open to all</t>
+          <t>$100,000.00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>If BALANCE were reduced to 2.0%:</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EXISTING CLIENTS:</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t xml:space="preserve">  Monthly Savings</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>$500.00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t xml:space="preserve">  Annual Savings</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>All existing investments GRANDFATHERED at original rates</t>
+          <t>$6,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DYNAMIC Principal (existing)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>$246,390.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DYNAMIC Status After Restructure</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Grandfathered at 3.5% (fund discontinued for new clients)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>--- POLICY ---</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Existing Clients</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ALL GRANDFATHERED - keep original rates</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>New Clients</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CORE 1.5%, BALANCE 2.0%, UNLIMITED $250K min</t>
         </is>
       </c>
     </row>
@@ -569,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,110 +652,211 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Fund</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Principal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Current Rate</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Min Investment</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly Interest (Current)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Annual Interest (Current)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Grandfathered</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>New Rate (for new clients)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Alejandro Mariscal Romero</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>CORE</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>18151.41</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>1.5%</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>$10,000</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Active</t>
+      <c r="F2" t="n">
+        <v>272.27115</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3267.2538</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>YES - keeps original rate</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.5%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Alejandro Mariscal Romero</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>BALANCE</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2.5%</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>$50,000</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Active</t>
+      <c r="F3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>YES - keeps original rate</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2.0%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DYNAMIC</t>
+          <t>Zurya Josselyn Lopez Arellano</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>$250,000</t>
-        </is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15994</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>239.91</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2878.92</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>YES - keeps original rate</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.5%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UNLIMITED</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>50-50 Performance</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
+          <t>DYNAMIC</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>246390.64</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Invitation Only</t>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>8623.672400000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>103484.0688</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>YES - keeps original rate</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>DISCONTINUED</t>
         </is>
       </c>
     </row>
@@ -698,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,76 +887,64 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>New Rate</t>
+          <t>Total Principal</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Min Investment</t>
+          <t>Total Monthly Interest</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Total Annual Interest</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Change</t>
+          <t>Current Rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>$10,000</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
+          <t>BALANCE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>2.5%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BALANCE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>$50,000</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>34145.41</v>
+      </c>
+      <c r="C3" t="n">
+        <v>512.18115</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6146.1738</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>↓ 0.5% reduction</t>
+          <t>1.5%</t>
         </is>
       </c>
     </row>
@@ -793,51 +954,18 @@
           <t>DYNAMIC</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DISCONTINUED</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Discontinued</t>
-        </is>
+      <c r="B4" t="n">
+        <v>246390.64</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8623.672400000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>103484.0688</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Merged into UNLIMITED</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>UNLIMITED</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>50-50 Performance</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>$250,000</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Open (absorbs DYNAMIC)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>↓ Min from $1M to $250K</t>
+          <t>3.5%</t>
         </is>
       </c>
     </row>
@@ -852,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,22 +991,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Client</t>
+          <t>Fund</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Fund</t>
+          <t>Total Principal</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Principal</t>
+          <t>Current Rate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Current Rate</t>
+          <t>Proposed Rate</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -888,28 +1016,38 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Annual Interest (Current)</t>
+          <t>Monthly Interest (If New Rate Applied)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Status After Restructure</t>
+          <t>Monthly Difference</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Annual Difference</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Impact</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Client A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>CORE</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>50000</v>
+      <c r="B2" t="n">
+        <v>34145.41</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -917,169 +1055,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>512.18115</v>
       </c>
       <c r="F2" t="n">
-        <v>9000</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Unchanged</t>
+        <v>512.18115</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>No change</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Client B</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>BALANCE</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>100000</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2500</v>
       </c>
       <c r="F3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Grandfathered at 2.5%</t>
+        <v>2000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-500</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-6000</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>GRANDFATHERED</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Client C</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BALANCE</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>75000</v>
+          <t>DYNAMIC</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>246390.64</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>DISCONTINUED</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1875</v>
+        <v>8623.672400000001</v>
       </c>
       <c r="F4" t="n">
-        <v>22500</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Grandfathered at 2.5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Client D</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DYNAMIC</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>300000</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>10500</v>
-      </c>
-      <c r="F5" t="n">
-        <v>126000</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Grandfathered at 3.5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Client E</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DYNAMIC</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>500000</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>17500</v>
-      </c>
-      <c r="F6" t="n">
-        <v>210000</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Grandfathered at 3.5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1025000</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>33125</v>
-      </c>
-      <c r="F7" t="n">
-        <v>397500</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-8623.672400000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-103484.0688</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>GRANDFATHERED</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,27 +1173,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Investment Amount</t>
+          <t>Current Rate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>New Rate</t>
+          <t>Proposed Rate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Monthly Return</t>
+          <t>Current Min</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Annual Return</t>
+          <t>Proposed Min</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Notes</t>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Existing Clients</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>New Clients</t>
         </is>
       </c>
     </row>
@@ -1140,23 +1213,39 @@
           <t>CORE</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>25000</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>1.5%</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>375</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4500</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$10,000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$10,000</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Entry-level fund</t>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Keep 1.5%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.5%</t>
         </is>
       </c>
     </row>
@@ -1166,53 +1255,81 @@
           <t>BALANCE</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>100000</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>2.0%</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24000</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$50,000</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$50,000</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Reduced from 2.5% to 2.0%</t>
+          <t>↓ 0.5%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Keep 2.5%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2.0%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UNLIMITED</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>250000</v>
+          <t>DYNAMIC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Variable*</t>
+          <t>DISCONTINUED</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Performance-based</t>
+          <t>$250,000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Performance-based</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>New min threshold (was $1M)</t>
+          <t>Merged to UNLIMITED</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Keep 3.5%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Not available</t>
         </is>
       </c>
     </row>
@@ -1222,27 +1339,39 @@
           <t>UNLIMITED</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>500000</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>50-50 Performance</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Variable*</t>
+          <t>50-50 Performance</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Performance-based</t>
+          <t>$1,000,000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Performance-based</t>
+          <t>$250,000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>50-50 profit sharing</t>
+          <t>↓ Min from $1M to $250K</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>$250K minimum</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1268,154 +1397,169 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Metric</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Before</t>
+          <t>Fund</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>After</t>
+          <t>Principal</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Original Rate</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rate After Restructure</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly Interest</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BALANCE Rate Change</t>
+          <t>Alejandro Mariscal Romero</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18151.41</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.5% reduction</t>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>272.27115</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GRANDFATHERED - No change to client terms</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BALANCE Monthly Savings per $100K</t>
+          <t>Alejandro Mariscal Romero</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$2,500</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>$2,000</t>
-        </is>
+          <t>BALANCE</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-$500/month savings</t>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>GRANDFATHERED - No change to client terms</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BALANCE Annual Savings per $100K</t>
+          <t>Zurya Josselyn Lopez Arellano</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$30,000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>$24,000</t>
-        </is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15994</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-$6,000/year savings</t>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>239.91</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>GRANDFATHERED - No change to client terms</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DYNAMIC Status</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Discontinued</t>
-        </is>
+          <t>DYNAMIC</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>246390.64</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Merged to UNLIMITED</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>UNLIMITED Min Investment Change</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>$250,000</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-$750K reduction</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>UNLIMITED Accessibility</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Invitation Only</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Now accessible to more clients</t>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>8623.672400000001</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>GRANDFATHERED - No change to client terms</t>
         </is>
       </c>
     </row>
